--- a/Hardware Information/Pin List.xlsx
+++ b/Hardware Information/Pin List.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pin List" sheetId="1" r:id="rId1"/>
+    <sheet name="Screw Terminals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
   <si>
     <t>Pin</t>
   </si>
@@ -216,13 +217,115 @@
   </si>
   <si>
     <t>SPI Component Master-Out Slave-In</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Screw Terminal Positions</t>
+  </si>
+  <si>
+    <t>Sensor/Arduino Pin</t>
+  </si>
+  <si>
+    <t>Serial1 RX, D2, GND</t>
+  </si>
+  <si>
+    <t>Davis Anemometer</t>
+  </si>
+  <si>
+    <t>3.3V, GND, A4, D8</t>
+  </si>
+  <si>
+    <t>Pin Names</t>
+  </si>
+  <si>
+    <t>Screw Terminal Connection</t>
+  </si>
+  <si>
+    <t>3.3V I2C</t>
+  </si>
+  <si>
+    <t>5V I2C</t>
+  </si>
+  <si>
+    <t>Free ADC Pins</t>
+  </si>
+  <si>
+    <t>A0, A1, A2</t>
+  </si>
+  <si>
+    <t>Li200</t>
+  </si>
+  <si>
+    <t>GND, A5</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>MISO, SCK, MOSI</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5V  </t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>12V Battery In</t>
+  </si>
+  <si>
+    <t>12V, GND</t>
+  </si>
+  <si>
+    <t>SHT31</t>
+  </si>
+  <si>
+    <t>MLX90614</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>SCL, SDA, 3.3V, GND</t>
+  </si>
+  <si>
+    <t>SCL (3.3V), SDA (3.3V)</t>
+  </si>
+  <si>
+    <t>SCL (5V), SDA (5V)</t>
+  </si>
+  <si>
+    <t>Upper 5TM</t>
+  </si>
+  <si>
+    <t>Lower 5TM</t>
+  </si>
+  <si>
+    <t>Serial RX, GND, D31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,6 +339,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,9 +369,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,279 +650,582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>76</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>88</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B3:B16)</f>
         <v>40</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware Information/Pin List.xlsx
+++ b/Hardware Information/Pin List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pin List" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>Pin</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Screw Terminal Positions</t>
   </si>
   <si>
@@ -318,7 +315,19 @@
     <t>Lower 5TM</t>
   </si>
   <si>
-    <t>Serial RX, GND, D31</t>
+    <t>PCB Connection Checklist</t>
+  </si>
+  <si>
+    <t>Yes, SD Card - No, ScrewTerm</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Yes, Level Shift - No, ScrewTerm</t>
+  </si>
+  <si>
+    <t>Serial RX, GND, D38</t>
   </si>
 </sst>
 </file>
@@ -650,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,14 +670,15 @@
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,10 +689,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -692,191 +705,209 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -886,155 +917,180 @@
       <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="D29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
       </c>
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>51</v>
       </c>
-      <c r="D33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
       </c>
-      <c r="D34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
       </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
       </c>
-      <c r="D37" t="s">
-        <v>63</v>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:D37">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="2"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1043,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,172 +1112,172 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17">
         <f>SUM(B3:B16)</f>

--- a/Hardware Information/Pin List.xlsx
+++ b/Hardware Information/Pin List.xlsx
@@ -1100,7 +1100,7 @@
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Hardware Information/Pin List.xlsx
+++ b/Hardware Information/Pin List.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>Pin</t>
   </si>
@@ -180,9 +180,6 @@
     <t>RTC Alarm Pin</t>
   </si>
   <si>
-    <t>Li200 Sunlight</t>
-  </si>
-  <si>
     <t>Davis Wind Direction</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>Sensor/Arduino Pin</t>
   </si>
   <si>
-    <t>Serial1 RX, D2, GND</t>
-  </si>
-  <si>
     <t>Davis Anemometer</t>
   </si>
   <si>
@@ -249,18 +243,9 @@
     <t>5V I2C</t>
   </si>
   <si>
-    <t>Free ADC Pins</t>
-  </si>
-  <si>
-    <t>A0, A1, A2</t>
-  </si>
-  <si>
     <t>Li200</t>
   </si>
   <si>
-    <t>GND, A5</t>
-  </si>
-  <si>
     <t>SPI</t>
   </si>
   <si>
@@ -327,7 +312,70 @@
     <t>Yes, Level Shift - No, ScrewTerm</t>
   </si>
   <si>
-    <t>Serial RX, GND, D38</t>
+    <t>Alternate Screw Term. Pos.</t>
+  </si>
+  <si>
+    <t>Sonic Anemometer Pin (5V)</t>
+  </si>
+  <si>
+    <t>Sonic Anemometer</t>
+  </si>
+  <si>
+    <t>External ADC Free</t>
+  </si>
+  <si>
+    <t>Screw Terminal Names</t>
+  </si>
+  <si>
+    <t>J30</t>
+  </si>
+  <si>
+    <t>J29</t>
+  </si>
+  <si>
+    <t>J28</t>
+  </si>
+  <si>
+    <t>J27</t>
+  </si>
+  <si>
+    <t>J15, J16, J17</t>
+  </si>
+  <si>
+    <t>J24</t>
+  </si>
+  <si>
+    <t>J26</t>
+  </si>
+  <si>
+    <t>J18, J19, J20</t>
+  </si>
+  <si>
+    <t>Serial RX (5V), GND, D38 (5V)</t>
+  </si>
+  <si>
+    <t>Serial1 RX (5V), D2 (5V), GND</t>
+  </si>
+  <si>
+    <t>GND, OpAmp Neg. Input</t>
+  </si>
+  <si>
+    <t>D10 (5V)</t>
+  </si>
+  <si>
+    <t>J25</t>
+  </si>
+  <si>
+    <t>Ain2, Ain3</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>J22</t>
+  </si>
+  <si>
+    <t>J23</t>
   </si>
 </sst>
 </file>
@@ -378,10 +426,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,10 +743,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -709,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -728,13 +782,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -764,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -777,6 +831,9 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -788,13 +845,16 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -811,15 +871,18 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -843,13 +906,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -865,10 +928,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -876,10 +942,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -887,13 +956,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -921,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -969,13 +1038,13 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -986,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -994,7 +1063,7 @@
         <v>35</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1002,7 +1071,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1010,7 +1079,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1021,7 +1090,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1031,11 +1100,8 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1043,13 +1109,13 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1057,13 +1123,13 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1071,13 +1137,13 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1097,194 +1163,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>89</v>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>83</v>
       </c>
       <c r="B17">
-        <f>SUM(B3:B16)</f>
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B3:B17)</f>
         <v>40</v>
       </c>
+      <c r="C18">
+        <f>SUM(C3:C17)</f>
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E12:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hardware Information/Pin List.xlsx
+++ b/Hardware Information/Pin List.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pin List" sheetId="1" r:id="rId1"/>
-    <sheet name="Screw Terminals" sheetId="2" r:id="rId2"/>
+    <sheet name="Screw Terminals" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
   <si>
     <t>Pin</t>
   </si>
@@ -303,15 +303,9 @@
     <t>PCB Connection Checklist</t>
   </si>
   <si>
-    <t>Yes, SD Card - No, ScrewTerm</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Yes, Level Shift - No, ScrewTerm</t>
-  </si>
-  <si>
     <t>Alternate Screw Term. Pos.</t>
   </si>
   <si>
@@ -376,6 +370,9 @@
   </si>
   <si>
     <t>J23</t>
+  </si>
+  <si>
+    <t>Fan Pin</t>
   </si>
 </sst>
 </file>
@@ -715,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -776,6 +773,9 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -798,6 +798,9 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -806,6 +809,9 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -859,6 +865,9 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -879,18 +888,24 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -900,6 +915,9 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -912,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -922,6 +940,9 @@
       <c r="D17">
         <v>0</v>
       </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -934,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -948,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -962,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -975,6 +996,9 @@
       <c r="D21">
         <v>0</v>
       </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -990,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1000,6 +1024,9 @@
       <c r="D23">
         <v>0</v>
       </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1008,6 +1035,9 @@
       <c r="D24">
         <v>0</v>
       </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1016,6 +1046,9 @@
       <c r="D25">
         <v>0</v>
       </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1024,6 +1057,9 @@
       <c r="D26">
         <v>0</v>
       </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1032,6 +1068,9 @@
       <c r="D27">
         <v>0</v>
       </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1057,6 +1096,9 @@
       <c r="D29">
         <v>0</v>
       </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1065,6 +1107,9 @@
       <c r="D30">
         <v>0</v>
       </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1073,6 +1118,9 @@
       <c r="D31">
         <v>0</v>
       </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1084,6 +1132,9 @@
       <c r="D32">
         <v>0</v>
       </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1095,6 +1146,9 @@
       <c r="D33">
         <v>1</v>
       </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1103,6 +1157,9 @@
       <c r="D34">
         <v>0</v>
       </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1115,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1129,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1143,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1186,13 +1243,13 @@
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1206,10 +1263,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1221,7 +1278,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1239,7 +1296,7 @@
         <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1256,7 +1313,7 @@
         <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1273,12 +1330,12 @@
         <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1287,10 +1344,10 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1304,10 +1361,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
         <v>109</v>
-      </c>
-      <c r="E9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1324,19 +1381,19 @@
         <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -1354,7 +1411,7 @@
         <v>75</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1384,7 +1441,7 @@
         <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1401,7 +1458,7 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1418,7 +1475,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1435,7 +1492,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">

--- a/Hardware Information/Pin List.xlsx
+++ b/Hardware Information/Pin List.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
   <si>
     <t>Pin</t>
   </si>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,11 +806,14 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -901,11 +904,11 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">

--- a/Hardware Information/Pin List.xlsx
+++ b/Hardware Information/Pin List.xlsx
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1129,9 +1129,6 @@
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
       <c r="D32">
         <v>0</v>
       </c>
@@ -1156,6 +1153,9 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
       </c>
       <c r="D34">
         <v>0</v>

--- a/Hardware Information/Pin List.xlsx
+++ b/Hardware Information/Pin List.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nipun/Documents/Arduino/LEMSv2/Hardware Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8715C3FC-2C71-0C4B-A68B-ECA5279B0650}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="-33280" yWindow="1960" windowWidth="25600" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin List" sheetId="1" r:id="rId1"/>
     <sheet name="Screw Terminals" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -162,12 +163,6 @@
     <t>Note: 3.3V/Ground connections not shown unless necessary</t>
   </si>
   <si>
-    <t>Upper 5TM Data</t>
-  </si>
-  <si>
-    <t>Lower 5TM Data</t>
-  </si>
-  <si>
     <t>Green LED</t>
   </si>
   <si>
@@ -189,12 +184,6 @@
     <t>Davis Wind Speed</t>
   </si>
   <si>
-    <t>Upper 5TM Power</t>
-  </si>
-  <si>
-    <t>Lower 5TM Power</t>
-  </si>
-  <si>
     <t>On-board Blue LED</t>
   </si>
   <si>
@@ -373,12 +362,24 @@
   </si>
   <si>
     <t>Fan Pin</t>
+  </si>
+  <si>
+    <t>Upper 5TM Data/Upper Teros21 Data</t>
+  </si>
+  <si>
+    <t>Lower 5TM Power/Lower Teros21 Power</t>
+  </si>
+  <si>
+    <t>Upper 5TM Power/Upper Teros21 Power</t>
+  </si>
+  <si>
+    <t>Lower 5TM Data/Lower Teros21 Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -442,6 +443,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -709,17 +713,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -740,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -754,13 +758,13 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -774,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -782,13 +786,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -799,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -807,13 +811,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -821,13 +825,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -835,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -849,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -863,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -877,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -891,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -908,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -919,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -927,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -944,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -952,13 +956,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -966,13 +970,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -980,13 +984,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1000,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1011,13 +1015,13 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1028,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1039,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1050,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1061,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1072,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1080,13 +1084,13 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1100,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1111,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1122,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1133,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1141,13 +1145,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1155,13 +1159,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,13 +1173,13 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1183,13 +1187,13 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1197,13 +1201,13 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1240,24 +1244,24 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1266,28 +1270,28 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1296,15 +1300,15 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1313,15 +1317,15 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1330,15 +1334,15 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1347,15 +1351,15 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1364,15 +1368,15 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1381,28 +1385,28 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1411,28 +1415,28 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1441,15 +1445,15 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1458,15 +1462,15 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1475,15 +1479,15 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1492,15 +1496,15 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <f>SUM(B3:B17)</f>
